--- a/Copy of 5_brockwooden_DataCollection2.xlsx
+++ b/Copy of 5_brockwooden_DataCollection2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brockwooden/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70C4C125-0FB4-164E-9458-DB2CE4C9A744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD649F9-96A6-F443-B342-DBBB5FCBADC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="980" windowWidth="27640" windowHeight="15220" xr2:uid="{5E44BDFE-BE61-C045-B62C-E212B81C3E20}"/>
+    <workbookView xWindow="1160" yWindow="980" windowWidth="27640" windowHeight="15220" xr2:uid="{5E44BDFE-BE61-C045-B62C-E212B81C3E20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
   <si>
     <t>db_id</t>
   </si>
@@ -348,6 +348,18 @@
   </si>
   <si>
     <t>when I click on screenshot, message says "not found"</t>
+  </si>
+  <si>
+    <t>march 21 2022</t>
+  </si>
+  <si>
+    <t>april 18 2022</t>
+  </si>
+  <si>
+    <t>Cannot find server</t>
+  </si>
+  <si>
+    <t>wayback machine says it has not archived the URL for the most recent snapshot, does not show site</t>
   </si>
 </sst>
 </file>
@@ -392,9 +404,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -713,7 +726,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -906,6 +919,18 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -920,6 +945,18 @@
       <c r="D10" t="b">
         <v>0</v>
       </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10">
+        <v>2021</v>
+      </c>
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -934,6 +971,18 @@
       <c r="D11" t="b">
         <v>0</v>
       </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11">
+        <v>2018</v>
+      </c>
+      <c r="H11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1020,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1037,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1054,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1070,8 +1119,17 @@
       <c r="E19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -1088,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1105,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -1122,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -1139,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -1156,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -1173,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -1183,11 +1241,14 @@
       <c r="C26" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -1204,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -1221,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -1238,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -1255,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>95</v>
       </c>
